--- a/System Engineeering/System Engineering Milestone 2/Design Concepts & Evaluation.xlsx
+++ b/System Engineeering/System Engineering Milestone 2/Design Concepts & Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ANU Master Courses\8170 group project\Multi-beacon-ranging-system-for-underwater-robotics\System Engineeering\System Engineering Milestone 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A187F3A-645D-4B63-BE71-8ADB32089043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC52C65F-22CA-43F2-A952-041D355E5E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>F 2.3 Decode Signal​</t>
   </si>
@@ -192,22 +192,36 @@
     <t>Weigted Score​</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Time Consumption ​ (R1.7 weight=0.2)​
+    <t>Computational Simplicity (R1.5 weight=0.3)​​</t>
+  </si>
+  <si>
+    <t>Signal Distinction ​(R1.4 weight=0.5)​</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: violate requirement </t>
+  </si>
+  <si>
+    <t>1: partially meet requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: just meet requirement </t>
+  </si>
+  <si>
+    <t>3. exceed requirement</t>
+  </si>
+  <si>
+    <t>Rating Criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Consumption ​ (R1.7 weight=0.2)​
 </t>
-  </si>
-  <si>
-    <t>Computational Simplicity (R1.5 weight=0.3)​​</t>
-  </si>
-  <si>
-    <t>Signal Distinction ​(R1.4 weight=0.5)​</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +248,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -327,18 +347,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,9 +364,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,13 +671,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -662,7 +685,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -673,8 +696,8 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -685,7 +708,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -699,7 +722,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -712,41 +735,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463BB54F-0CFE-4AE3-9406-D950A7AAEF7B}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="8" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -760,11 +787,14 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f>0.2*B2+0.3*C2+0.5*D2</f>
+        <f t="shared" ref="E2:E37" si="0">0.2*B2+0.3*C2+0.5*D2</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -778,11 +808,14 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f>0.2*B3+0.3*C3+0.5*D3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -796,11 +829,14 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <f>0.2*B4+0.3*C4+0.5*D4</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -814,11 +850,14 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <f>0.2*B5+0.3*C5+0.5*D5</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -832,11 +871,11 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>0.2*B6+0.3*C6+0.5*D6</f>
+        <f t="shared" si="0"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -850,11 +889,11 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <f>0.2*B7+0.3*C7+0.5*D7</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -868,11 +907,11 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <f>0.2*B8+0.3*C8+0.5*D8</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -886,11 +925,11 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>0.2*B9+0.3*C9+0.5*D9</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -904,11 +943,11 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <f>0.2*B10+0.3*C10+0.5*D10</f>
+        <f t="shared" si="0"/>
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -922,11 +961,11 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <f>0.2*B11+0.3*C11+0.5*D11</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -940,11 +979,11 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>0.2*B12+0.3*C12+0.5*D12</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -958,11 +997,11 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <f>0.2*B13+0.3*C13+0.5*D13</f>
+        <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -976,11 +1015,11 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <f>0.2*B14+0.3*C14+0.5*D14</f>
+        <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -994,11 +1033,11 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>0.2*B15+0.3*C15+0.5*D15</f>
+        <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1012,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>0.2*B16+0.3*C16+0.5*D16</f>
+        <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
     </row>
@@ -1030,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <f>0.2*B17+0.3*C17+0.5*D17</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
@@ -1048,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>0.2*B18+0.3*C18+0.5*D18</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
@@ -1066,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <f>0.2*B19+0.3*C19+0.5*D19</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
@@ -1084,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>0.2*B20+0.3*C20+0.5*D20</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
     </row>
@@ -1102,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>0.2*B21+0.3*C21+0.5*D21</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
@@ -1120,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>0.2*B22+0.3*C22+0.5*D22</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1138,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <f>0.2*B23+0.3*C23+0.5*D23</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1156,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f>0.2*B24+0.3*C24+0.5*D24</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1174,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f>0.2*B25+0.3*C25+0.5*D25</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1192,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>0.2*B26+0.3*C26+0.5*D26</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1210,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f>0.2*B27+0.3*C27+0.5*D27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1228,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <f>0.2*B28+0.3*C28+0.5*D28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1246,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f>0.2*B29+0.3*C29+0.5*D29</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -1264,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f>0.2*B30+0.3*C30+0.5*D30</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -1282,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f>0.2*B31+0.3*C31+0.5*D31</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -1300,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>0.2*B32+0.3*C32+0.5*D32</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
@@ -1318,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <f>0.2*B33+0.3*C33+0.5*D33</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -1336,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f>0.2*B34+0.3*C34+0.5*D34</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -1354,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f>0.2*B35+0.3*C35+0.5*D35</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -1372,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f>0.2*B36+0.3*C36+0.5*D36</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -1390,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f>0.2*B37+0.3*C37+0.5*D37</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -1400,5 +1439,6 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>